--- a/data/pca/factorExposure/factorExposure_2011-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007122473922432805</v>
+        <v>0.01294147697667753</v>
       </c>
       <c r="C2">
-        <v>-9.991854756677953e-05</v>
+        <v>-0.001332239913391247</v>
       </c>
       <c r="D2">
-        <v>-0.04821926336604847</v>
+        <v>-8.779999254502321e-06</v>
       </c>
       <c r="E2">
-        <v>-0.001450838580881509</v>
+        <v>-0.01228382458466985</v>
       </c>
       <c r="F2">
-        <v>-0.01223998979707779</v>
+        <v>-0.03237735820858812</v>
       </c>
       <c r="G2">
-        <v>-0.01115267200419712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.000210574832251911</v>
+      </c>
+      <c r="H2">
+        <v>0.006350905566039009</v>
+      </c>
+      <c r="I2">
+        <v>-0.05419739870181428</v>
+      </c>
+      <c r="J2">
+        <v>0.0578986436448341</v>
+      </c>
+      <c r="K2">
+        <v>-0.01825093857574413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1036233809253697</v>
+        <v>0.1137732618244913</v>
       </c>
       <c r="C4">
-        <v>-0.03186391551727968</v>
+        <v>-0.06322018945829345</v>
       </c>
       <c r="D4">
-        <v>-0.04576181396301988</v>
+        <v>-0.005706139509219843</v>
       </c>
       <c r="E4">
-        <v>-0.0611463088216047</v>
+        <v>-0.005072216547273941</v>
       </c>
       <c r="F4">
-        <v>-0.03369112991832313</v>
+        <v>-0.03078447056414996</v>
       </c>
       <c r="G4">
-        <v>-0.02622740338337145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0842680244899951</v>
+      </c>
+      <c r="H4">
+        <v>0.1297544206425555</v>
+      </c>
+      <c r="I4">
+        <v>-0.01439052477803419</v>
+      </c>
+      <c r="J4">
+        <v>-0.04233268213350971</v>
+      </c>
+      <c r="K4">
+        <v>0.0286825094986384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1288382791205996</v>
+        <v>0.1265716140054239</v>
       </c>
       <c r="C6">
-        <v>-0.0264325331828663</v>
+        <v>-0.03354979723179412</v>
       </c>
       <c r="D6">
-        <v>-0.03362549732870411</v>
+        <v>-0.01121287022777481</v>
       </c>
       <c r="E6">
-        <v>0.01063844987732487</v>
+        <v>0.01863721895179104</v>
       </c>
       <c r="F6">
-        <v>0.1457633447614962</v>
+        <v>0.0004365990595855628</v>
       </c>
       <c r="G6">
-        <v>0.1035930440186066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.07277938717847524</v>
+      </c>
+      <c r="H6">
+        <v>0.06274484365772084</v>
+      </c>
+      <c r="I6">
+        <v>0.1928941642031275</v>
+      </c>
+      <c r="J6">
+        <v>-0.3653316666346352</v>
+      </c>
+      <c r="K6">
+        <v>-0.1664290048196403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09118301677852009</v>
+        <v>0.07531627100612628</v>
       </c>
       <c r="C7">
-        <v>-0.04501140310432521</v>
+        <v>-0.06656659862536157</v>
       </c>
       <c r="D7">
-        <v>-0.0425762666106471</v>
+        <v>-0.03129753866484454</v>
       </c>
       <c r="E7">
-        <v>-0.02707891690588516</v>
+        <v>-0.01210742600652296</v>
       </c>
       <c r="F7">
-        <v>0.0234489504494802</v>
+        <v>-0.05384977125594519</v>
       </c>
       <c r="G7">
-        <v>-0.0321651582556269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02717240726066872</v>
+      </c>
+      <c r="H7">
+        <v>0.03390862919578561</v>
+      </c>
+      <c r="I7">
+        <v>0.02050443056174808</v>
+      </c>
+      <c r="J7">
+        <v>0.02343180364823063</v>
+      </c>
+      <c r="K7">
+        <v>0.09795580660063984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04534792211723726</v>
+        <v>0.05373601191408205</v>
       </c>
       <c r="C8">
-        <v>0.02141194842191638</v>
+        <v>-0.0157160700169145</v>
       </c>
       <c r="D8">
-        <v>-0.08696553748816011</v>
+        <v>-0.01585244470766512</v>
       </c>
       <c r="E8">
-        <v>-0.08137647995972531</v>
+        <v>-0.01098730383373172</v>
       </c>
       <c r="F8">
-        <v>-0.0307396492972423</v>
+        <v>-0.0178766987751108</v>
       </c>
       <c r="G8">
-        <v>-0.1265836163937179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.1121764470367863</v>
+      </c>
+      <c r="H8">
+        <v>0.09750446258703201</v>
+      </c>
+      <c r="I8">
+        <v>-0.01824414850432602</v>
+      </c>
+      <c r="J8">
+        <v>-0.03101307868886348</v>
+      </c>
+      <c r="K8">
+        <v>0.02959189478379185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09327585679524877</v>
+        <v>0.08588624755827452</v>
       </c>
       <c r="C9">
-        <v>-0.04046364840184993</v>
+        <v>-0.05457994399646263</v>
       </c>
       <c r="D9">
-        <v>-0.036366096071689</v>
+        <v>-0.01247236736092906</v>
       </c>
       <c r="E9">
-        <v>-0.04636516032629402</v>
+        <v>-0.015295009791756</v>
       </c>
       <c r="F9">
-        <v>-0.02174751629343554</v>
+        <v>-0.01993991675089656</v>
       </c>
       <c r="G9">
-        <v>-0.06640096415242452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.07447662048061127</v>
+      </c>
+      <c r="H9">
+        <v>0.1168969046367807</v>
+      </c>
+      <c r="I9">
+        <v>0.007962227697650814</v>
+      </c>
+      <c r="J9">
+        <v>-0.01230071092669838</v>
+      </c>
+      <c r="K9">
+        <v>-0.002946142855034494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03856738071333252</v>
+        <v>0.09747490672819505</v>
       </c>
       <c r="C10">
-        <v>0.1558742721080909</v>
+        <v>0.1644628629361677</v>
       </c>
       <c r="D10">
-        <v>-0.090484411066721</v>
+        <v>0.04172108580186351</v>
       </c>
       <c r="E10">
-        <v>-0.0246906629251584</v>
+        <v>-0.002437103140076358</v>
       </c>
       <c r="F10">
-        <v>0.04168238787029462</v>
+        <v>-0.05343489278891576</v>
       </c>
       <c r="G10">
-        <v>-0.01939949258315928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.005305902466029013</v>
+      </c>
+      <c r="H10">
+        <v>-0.01431988973035439</v>
+      </c>
+      <c r="I10">
+        <v>0.03397964057802199</v>
+      </c>
+      <c r="J10">
+        <v>-0.02925875876982958</v>
+      </c>
+      <c r="K10">
+        <v>0.04984018203198266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07628454484929893</v>
+        <v>0.07639525206960046</v>
       </c>
       <c r="C11">
-        <v>-0.06231108720466985</v>
+        <v>-0.06658243260482673</v>
       </c>
       <c r="D11">
-        <v>-0.00726956047989023</v>
+        <v>-0.03617485582141248</v>
       </c>
       <c r="E11">
-        <v>0.004284653280125466</v>
+        <v>-0.03456797406460763</v>
       </c>
       <c r="F11">
-        <v>-0.0224362079104448</v>
+        <v>-0.001767824200111821</v>
       </c>
       <c r="G11">
-        <v>-0.1438556041319267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.09083359213278494</v>
+      </c>
+      <c r="H11">
+        <v>0.09578507651855632</v>
+      </c>
+      <c r="I11">
+        <v>-0.004895984767969509</v>
+      </c>
+      <c r="J11">
+        <v>0.1143184987585633</v>
+      </c>
+      <c r="K11">
+        <v>-0.03916124469251213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.072496712902802</v>
+        <v>0.07258924854690012</v>
       </c>
       <c r="C12">
-        <v>-0.04048722930930122</v>
+        <v>-0.05770149143968045</v>
       </c>
       <c r="D12">
-        <v>-0.0008596137660911522</v>
+        <v>-0.04179353638984089</v>
       </c>
       <c r="E12">
-        <v>-0.03419382193980999</v>
+        <v>-0.04837655076681286</v>
       </c>
       <c r="F12">
-        <v>-0.00867278087679195</v>
+        <v>-0.002490490118009941</v>
       </c>
       <c r="G12">
-        <v>-0.1359033037539046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.1095628375414932</v>
+      </c>
+      <c r="H12">
+        <v>0.09114005140562209</v>
+      </c>
+      <c r="I12">
+        <v>0.01436659667787236</v>
+      </c>
+      <c r="J12">
+        <v>0.09881089087807944</v>
+      </c>
+      <c r="K12">
+        <v>-0.02580635674082384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06523747720123074</v>
+        <v>0.04133381420216083</v>
       </c>
       <c r="C13">
-        <v>-0.008026524716181834</v>
+        <v>-0.02677538995578805</v>
       </c>
       <c r="D13">
-        <v>-0.009989894634470605</v>
+        <v>-0.01300234733959214</v>
       </c>
       <c r="E13">
-        <v>-0.0241094542972617</v>
+        <v>0.007712447249382207</v>
       </c>
       <c r="F13">
-        <v>-0.04394970963084496</v>
+        <v>-0.02065185059023282</v>
       </c>
       <c r="G13">
-        <v>-0.06133427559134236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04583494867634334</v>
+      </c>
+      <c r="H13">
+        <v>0.04228577950890087</v>
+      </c>
+      <c r="I13">
+        <v>0.03006540511445021</v>
+      </c>
+      <c r="J13">
+        <v>-0.03583296612085544</v>
+      </c>
+      <c r="K13">
+        <v>0.04084252304312198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05382772213296607</v>
+        <v>0.04406366993968233</v>
       </c>
       <c r="C14">
-        <v>-0.003819424269038613</v>
+        <v>-0.02212101032574984</v>
       </c>
       <c r="D14">
-        <v>-0.03642628843661843</v>
+        <v>-0.0009475574294851884</v>
       </c>
       <c r="E14">
-        <v>-0.02482481808845095</v>
+        <v>-0.01555740223088873</v>
       </c>
       <c r="F14">
-        <v>-0.006816946112442063</v>
+        <v>-0.001245919728755528</v>
       </c>
       <c r="G14">
-        <v>-0.07345927950872064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.05213545911833076</v>
+      </c>
+      <c r="H14">
+        <v>0.04410179928982619</v>
+      </c>
+      <c r="I14">
+        <v>-0.01744270956366815</v>
+      </c>
+      <c r="J14">
+        <v>-0.0451503952329573</v>
+      </c>
+      <c r="K14">
+        <v>0.03312015020063392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03847774229710765</v>
+        <v>0.02451157449973947</v>
       </c>
       <c r="C15">
-        <v>0.01050651734567179</v>
+        <v>-0.008490828529797316</v>
       </c>
       <c r="D15">
-        <v>-0.009130766652746617</v>
+        <v>0.0003751478486102815</v>
       </c>
       <c r="E15">
-        <v>-0.005689699873321487</v>
+        <v>0.03315090177513003</v>
       </c>
       <c r="F15">
-        <v>-0.01704443092295144</v>
+        <v>-0.01792461487985765</v>
       </c>
       <c r="G15">
-        <v>-0.0248643387569712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01141634314433339</v>
+      </c>
+      <c r="H15">
+        <v>0.01568368817195634</v>
+      </c>
+      <c r="I15">
+        <v>0.01635098587538941</v>
+      </c>
+      <c r="J15">
+        <v>-0.04997172462630919</v>
+      </c>
+      <c r="K15">
+        <v>0.03619382295088686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07988764653402368</v>
+        <v>0.08037709446391469</v>
       </c>
       <c r="C16">
-        <v>-0.07152051345373384</v>
+        <v>-0.06684132707523388</v>
       </c>
       <c r="D16">
-        <v>-0.01583053056212558</v>
+        <v>-0.04763596102590349</v>
       </c>
       <c r="E16">
-        <v>-0.03490129947556748</v>
+        <v>-0.03192607183774649</v>
       </c>
       <c r="F16">
-        <v>-0.04150999225398976</v>
+        <v>-0.00754637168893111</v>
       </c>
       <c r="G16">
-        <v>-0.106827820275407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1135124633007925</v>
+      </c>
+      <c r="H16">
+        <v>0.08477023463423132</v>
+      </c>
+      <c r="I16">
+        <v>-0.006638292975806918</v>
+      </c>
+      <c r="J16">
+        <v>0.1187080941486538</v>
+      </c>
+      <c r="K16">
+        <v>-0.01868609783527619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05071909747173659</v>
+        <v>0.05032163140921135</v>
       </c>
       <c r="C20">
-        <v>-0.01990914711575147</v>
+        <v>-0.03880846012664994</v>
       </c>
       <c r="D20">
-        <v>-0.01729567876816931</v>
+        <v>0.0156623236683454</v>
       </c>
       <c r="E20">
-        <v>-0.02289783435741661</v>
+        <v>8.715623370312217e-05</v>
       </c>
       <c r="F20">
-        <v>-0.0131630055623089</v>
+        <v>-0.01487115849807839</v>
       </c>
       <c r="G20">
-        <v>-0.1062230108332742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06103029764720162</v>
+      </c>
+      <c r="H20">
+        <v>0.04102336007831542</v>
+      </c>
+      <c r="I20">
+        <v>0.005647034553556394</v>
+      </c>
+      <c r="J20">
+        <v>-0.01917875277212761</v>
+      </c>
+      <c r="K20">
+        <v>0.05805410756399123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02667581624167489</v>
+        <v>0.0270413541271999</v>
       </c>
       <c r="C21">
-        <v>-0.03563283417092709</v>
+        <v>-0.02228529693886098</v>
       </c>
       <c r="D21">
-        <v>0.002198510863629606</v>
+        <v>0.0284109722153107</v>
       </c>
       <c r="E21">
-        <v>-0.01171858135012409</v>
+        <v>0.003107057846661095</v>
       </c>
       <c r="F21">
-        <v>0.09006449026494924</v>
+        <v>0.01460383363588421</v>
       </c>
       <c r="G21">
-        <v>0.05138985250091466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05818904870791917</v>
+      </c>
+      <c r="H21">
+        <v>0.06914540758665261</v>
+      </c>
+      <c r="I21">
+        <v>0.08670742937404582</v>
+      </c>
+      <c r="J21">
+        <v>-0.02348174971052211</v>
+      </c>
+      <c r="K21">
+        <v>0.1065266518624409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04433917291415357</v>
+        <v>0.03819991594661418</v>
       </c>
       <c r="C22">
-        <v>-0.001395350623806266</v>
+        <v>-0.01431855306456405</v>
       </c>
       <c r="D22">
-        <v>-0.004814501170835993</v>
+        <v>-0.03427464398629185</v>
       </c>
       <c r="E22">
-        <v>-0.5580568556266943</v>
+        <v>0.54793444743465</v>
       </c>
       <c r="F22">
-        <v>-0.07915116338291696</v>
+        <v>-0.3534171945886145</v>
       </c>
       <c r="G22">
-        <v>0.3241091342552554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.09162268985435935</v>
+      </c>
+      <c r="H22">
+        <v>-0.1473571964334986</v>
+      </c>
+      <c r="I22">
+        <v>0.0126224565716903</v>
+      </c>
+      <c r="J22">
+        <v>0.07550591104956195</v>
+      </c>
+      <c r="K22">
+        <v>-0.05832316155014786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04436815499730973</v>
+        <v>0.03841071660602257</v>
       </c>
       <c r="C23">
-        <v>-0.002059263848865547</v>
+        <v>-0.01495872380413812</v>
       </c>
       <c r="D23">
-        <v>-0.005988070187798524</v>
+        <v>-0.03554252733207508</v>
       </c>
       <c r="E23">
-        <v>-0.5578434835763174</v>
+        <v>0.5497119426848118</v>
       </c>
       <c r="F23">
-        <v>-0.07993108841441939</v>
+        <v>-0.3548846634380423</v>
       </c>
       <c r="G23">
-        <v>0.3254626618701797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.09326906215382166</v>
+      </c>
+      <c r="H23">
+        <v>-0.1439729313214786</v>
+      </c>
+      <c r="I23">
+        <v>0.01117502634675524</v>
+      </c>
+      <c r="J23">
+        <v>0.07243205064121899</v>
+      </c>
+      <c r="K23">
+        <v>-0.06086519014656132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08551634486615006</v>
+        <v>0.08355054777562343</v>
       </c>
       <c r="C24">
-        <v>-0.04785650655754155</v>
+        <v>-0.06075254995247199</v>
       </c>
       <c r="D24">
-        <v>-0.02163177995926604</v>
+        <v>-0.02397371596020292</v>
       </c>
       <c r="E24">
-        <v>-0.03764626201580506</v>
+        <v>-0.0283223841443424</v>
       </c>
       <c r="F24">
-        <v>-0.01042294989557002</v>
+        <v>-0.00413581366893457</v>
       </c>
       <c r="G24">
-        <v>-0.1132854164511106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.10925736765077</v>
+      </c>
+      <c r="H24">
+        <v>0.08578832000922273</v>
+      </c>
+      <c r="I24">
+        <v>-0.0003082689968061678</v>
+      </c>
+      <c r="J24">
+        <v>0.1194523976137728</v>
+      </c>
+      <c r="K24">
+        <v>-0.0473822534184349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07571269633788129</v>
+        <v>0.08410555756547843</v>
       </c>
       <c r="C25">
-        <v>-0.02022842593696308</v>
+        <v>-0.04486807706965266</v>
       </c>
       <c r="D25">
-        <v>-0.02443430690694917</v>
+        <v>-0.03336387851640196</v>
       </c>
       <c r="E25">
-        <v>-0.02667094642921415</v>
+        <v>-0.05584206498577918</v>
       </c>
       <c r="F25">
-        <v>-0.004350081725351681</v>
+        <v>-0.003832364400411702</v>
       </c>
       <c r="G25">
-        <v>-0.1086405596565025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.1120372465652811</v>
+      </c>
+      <c r="H25">
+        <v>0.07689365173315123</v>
+      </c>
+      <c r="I25">
+        <v>-0.01007336350465005</v>
+      </c>
+      <c r="J25">
+        <v>0.09526689461404442</v>
+      </c>
+      <c r="K25">
+        <v>-0.02989400959781935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05142750522104709</v>
+        <v>0.04394217820586666</v>
       </c>
       <c r="C26">
-        <v>-0.02311499847767173</v>
+        <v>-0.0104667131078053</v>
       </c>
       <c r="D26">
-        <v>-0.03246793730578884</v>
+        <v>0.01033795283678965</v>
       </c>
       <c r="E26">
-        <v>-0.01416006425293027</v>
+        <v>0.01559515255562233</v>
       </c>
       <c r="F26">
-        <v>-0.0323655471910865</v>
+        <v>0.0002125985204991845</v>
       </c>
       <c r="G26">
-        <v>-0.05446851935443579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.05701282405846676</v>
+      </c>
+      <c r="H26">
+        <v>0.0267635291596187</v>
+      </c>
+      <c r="I26">
+        <v>-0.005326145939906877</v>
+      </c>
+      <c r="J26">
+        <v>-0.03154930746864095</v>
+      </c>
+      <c r="K26">
+        <v>0.01738217225509912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06370409994230468</v>
+        <v>0.1218317339796242</v>
       </c>
       <c r="C28">
-        <v>0.2944612829156389</v>
+        <v>0.3034715641489986</v>
       </c>
       <c r="D28">
-        <v>-0.05858996819350854</v>
+        <v>-0.004837991182304766</v>
       </c>
       <c r="E28">
-        <v>0.03516256197644332</v>
+        <v>-0.007718029387878696</v>
       </c>
       <c r="F28">
-        <v>0.04734569245308587</v>
+        <v>-0.00448694172303018</v>
       </c>
       <c r="G28">
-        <v>0.02463170039173826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01429273672514765</v>
+      </c>
+      <c r="H28">
+        <v>0.009614692096538299</v>
+      </c>
+      <c r="I28">
+        <v>0.01621939653735312</v>
+      </c>
+      <c r="J28">
+        <v>0.005812645294605127</v>
+      </c>
+      <c r="K28">
+        <v>0.02151332182564996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.0565012639813242</v>
+        <v>0.04079243909253196</v>
       </c>
       <c r="C29">
-        <v>-0.007962992748099664</v>
+        <v>-0.01974418858039665</v>
       </c>
       <c r="D29">
-        <v>-0.03037943041379243</v>
+        <v>-0.0127908863224917</v>
       </c>
       <c r="E29">
-        <v>-0.04206351812165837</v>
+        <v>-0.02319190579186381</v>
       </c>
       <c r="F29">
-        <v>-0.03538962586762474</v>
+        <v>-0.02345160144636517</v>
       </c>
       <c r="G29">
-        <v>-0.05084210316122027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09743391486389442</v>
+      </c>
+      <c r="H29">
+        <v>0.02650673626809103</v>
+      </c>
+      <c r="I29">
+        <v>0.000976975616203744</v>
+      </c>
+      <c r="J29">
+        <v>-0.041641014978298</v>
+      </c>
+      <c r="K29">
+        <v>0.04848132405503051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1165362403083895</v>
+        <v>0.1057240841407367</v>
       </c>
       <c r="C30">
-        <v>0.01693522861041828</v>
+        <v>-0.04567755243489294</v>
       </c>
       <c r="D30">
-        <v>-0.07539986157639705</v>
+        <v>-0.05763739674669138</v>
       </c>
       <c r="E30">
-        <v>-0.1998721237410233</v>
+        <v>-0.009939572788240406</v>
       </c>
       <c r="F30">
-        <v>0.05082353920872651</v>
+        <v>0.005434065188864198</v>
       </c>
       <c r="G30">
-        <v>-0.1472643059550164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.2072002781973813</v>
+      </c>
+      <c r="H30">
+        <v>0.08286577562950405</v>
+      </c>
+      <c r="I30">
+        <v>0.1680706858504315</v>
+      </c>
+      <c r="J30">
+        <v>0.08218744766990053</v>
+      </c>
+      <c r="K30">
+        <v>-0.05173595080423904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05695614134979744</v>
+        <v>0.03869020113778684</v>
       </c>
       <c r="C31">
-        <v>-0.01809491342033941</v>
+        <v>-0.03774811860359251</v>
       </c>
       <c r="D31">
-        <v>0.009930497808772004</v>
+        <v>-0.00483735771231341</v>
       </c>
       <c r="E31">
-        <v>-0.008603292931937361</v>
+        <v>-0.0002136555243054275</v>
       </c>
       <c r="F31">
-        <v>-0.02660791399474591</v>
+        <v>-0.003479005107739163</v>
       </c>
       <c r="G31">
-        <v>-0.00608658986211375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02678560664804819</v>
+      </c>
+      <c r="H31">
+        <v>0.01294310588846658</v>
+      </c>
+      <c r="I31">
+        <v>-0.03553349234962142</v>
+      </c>
+      <c r="J31">
+        <v>-0.02177267940030331</v>
+      </c>
+      <c r="K31">
+        <v>-0.003491579829371725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03832449023178301</v>
+        <v>0.05353660397300827</v>
       </c>
       <c r="C32">
-        <v>0.01781353943800095</v>
+        <v>-0.001511051267502658</v>
       </c>
       <c r="D32">
-        <v>-0.004049672480914583</v>
+        <v>0.01213372922050321</v>
       </c>
       <c r="E32">
-        <v>-0.08527424007032464</v>
+        <v>-0.01594615935037341</v>
       </c>
       <c r="F32">
-        <v>-0.08131819584811203</v>
+        <v>0.06061136586720169</v>
       </c>
       <c r="G32">
-        <v>-0.05437837771624212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03414368595524071</v>
+      </c>
+      <c r="H32">
+        <v>0.04714663841695965</v>
+      </c>
+      <c r="I32">
+        <v>-0.02551669249154254</v>
+      </c>
+      <c r="J32">
+        <v>-0.02626598166609262</v>
+      </c>
+      <c r="K32">
+        <v>0.02089478570743497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1128241817626965</v>
+        <v>0.09692272046275421</v>
       </c>
       <c r="C33">
-        <v>-0.01789533023873728</v>
+        <v>-0.04929077953379273</v>
       </c>
       <c r="D33">
-        <v>0.007836759753049616</v>
+        <v>-0.06492124451680689</v>
       </c>
       <c r="E33">
-        <v>-0.008779818154557814</v>
+        <v>-0.03564085659612311</v>
       </c>
       <c r="F33">
-        <v>-0.05596041408180759</v>
+        <v>-0.00466279261086815</v>
       </c>
       <c r="G33">
-        <v>-0.0574075437729293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04460225486521076</v>
+      </c>
+      <c r="H33">
+        <v>0.05149711907798343</v>
+      </c>
+      <c r="I33">
+        <v>-0.01804843826170582</v>
+      </c>
+      <c r="J33">
+        <v>0.01351860840436562</v>
+      </c>
+      <c r="K33">
+        <v>-0.02311928868956463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06619449362421252</v>
+        <v>0.06815131228367101</v>
       </c>
       <c r="C34">
-        <v>-0.05281163714818626</v>
+        <v>-0.04977908496899395</v>
       </c>
       <c r="D34">
-        <v>-0.006691819207134997</v>
+        <v>-0.0288019597487897</v>
       </c>
       <c r="E34">
-        <v>-0.01794884287970711</v>
+        <v>-0.02978357192690887</v>
       </c>
       <c r="F34">
-        <v>-0.02221539455991692</v>
+        <v>-0.004535955725092537</v>
       </c>
       <c r="G34">
-        <v>-0.09036461696460073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.1021384380119922</v>
+      </c>
+      <c r="H34">
+        <v>0.08092612827283133</v>
+      </c>
+      <c r="I34">
+        <v>-0.002391793792880968</v>
+      </c>
+      <c r="J34">
+        <v>0.0907474466534665</v>
+      </c>
+      <c r="K34">
+        <v>0.002170445187559134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04294077395343218</v>
+        <v>0.02208971354729716</v>
       </c>
       <c r="C35">
-        <v>-0.008579785823758266</v>
+        <v>-0.01567134655103978</v>
       </c>
       <c r="D35">
-        <v>0.0178497872103652</v>
+        <v>-0.0127266286550127</v>
       </c>
       <c r="E35">
-        <v>-0.004617376758368515</v>
+        <v>-0.008583966920487509</v>
       </c>
       <c r="F35">
-        <v>0.03605118082508863</v>
+        <v>-0.002507229451269126</v>
       </c>
       <c r="G35">
-        <v>-0.04871796063978444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04904647803161287</v>
+      </c>
+      <c r="H35">
+        <v>0.01754403327621565</v>
+      </c>
+      <c r="I35">
+        <v>0.02083243760234332</v>
+      </c>
+      <c r="J35">
+        <v>0.01108514453315902</v>
+      </c>
+      <c r="K35">
+        <v>0.06028793156999417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03691028015558723</v>
+        <v>0.02885559530800896</v>
       </c>
       <c r="C36">
-        <v>-0.001966010403922461</v>
+        <v>-0.01166774083032457</v>
       </c>
       <c r="D36">
-        <v>-0.02447845702383569</v>
+        <v>-0.003372190230670212</v>
       </c>
       <c r="E36">
-        <v>-0.03361950486798941</v>
+        <v>0.002469459429364515</v>
       </c>
       <c r="F36">
-        <v>-0.006716531504980843</v>
+        <v>-0.007351640938409973</v>
       </c>
       <c r="G36">
-        <v>-0.06367274202627059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.06547970338381473</v>
+      </c>
+      <c r="H36">
+        <v>0.04553977491007088</v>
+      </c>
+      <c r="I36">
+        <v>0.008767580723699094</v>
+      </c>
+      <c r="J36">
+        <v>-0.02841062241477511</v>
+      </c>
+      <c r="K36">
+        <v>-0.006958446418873494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.0514873997299757</v>
+        <v>0.02214367752563482</v>
       </c>
       <c r="C38">
-        <v>-0.01932308523091412</v>
+        <v>-0.02806393418406354</v>
       </c>
       <c r="D38">
-        <v>0.0002456250381151362</v>
+        <v>-0.01123933893975204</v>
       </c>
       <c r="E38">
-        <v>-0.01041446244770846</v>
+        <v>0.007524864675788361</v>
       </c>
       <c r="F38">
-        <v>0.004233579682346815</v>
+        <v>-0.02240991061654596</v>
       </c>
       <c r="G38">
-        <v>-0.04596668639147839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01808801504910229</v>
+      </c>
+      <c r="H38">
+        <v>-0.05100545921542942</v>
+      </c>
+      <c r="I38">
+        <v>0.01533052719685762</v>
+      </c>
+      <c r="J38">
+        <v>-0.01311963869612438</v>
+      </c>
+      <c r="K38">
+        <v>-0.01324149504266148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1073784196098352</v>
+        <v>0.1133323175851295</v>
       </c>
       <c r="C39">
-        <v>-0.04345468515391115</v>
+        <v>-0.07769069303776784</v>
       </c>
       <c r="D39">
-        <v>-0.003892551475324718</v>
+        <v>-0.0669641387570608</v>
       </c>
       <c r="E39">
-        <v>-0.06971352725359485</v>
+        <v>-0.1014097475716833</v>
       </c>
       <c r="F39">
-        <v>-0.01368794263240418</v>
+        <v>0.02231548522442997</v>
       </c>
       <c r="G39">
-        <v>-0.1519949954528749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1511744515806012</v>
+      </c>
+      <c r="H39">
+        <v>0.05852813781968048</v>
+      </c>
+      <c r="I39">
+        <v>0.01182011867941354</v>
+      </c>
+      <c r="J39">
+        <v>0.1792151929081738</v>
+      </c>
+      <c r="K39">
+        <v>-0.02347271453733608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05586519134866182</v>
+        <v>0.0233648106437475</v>
       </c>
       <c r="C40">
-        <v>-0.03168989787297929</v>
+        <v>-0.05595371633722746</v>
       </c>
       <c r="D40">
-        <v>0.02034512559267203</v>
+        <v>0.0007447100175433897</v>
       </c>
       <c r="E40">
-        <v>-0.1014496390500017</v>
+        <v>0.04954319244279052</v>
       </c>
       <c r="F40">
-        <v>0.00702091285141311</v>
+        <v>-0.0393069133486085</v>
       </c>
       <c r="G40">
-        <v>-0.2554332101639359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.09480182106601322</v>
+      </c>
+      <c r="H40">
+        <v>0.08527110138239401</v>
+      </c>
+      <c r="I40">
+        <v>0.08755642978769514</v>
+      </c>
+      <c r="J40">
+        <v>-0.008739561127425334</v>
+      </c>
+      <c r="K40">
+        <v>0.009900845159700548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04854766193916553</v>
+        <v>0.03474818982020824</v>
       </c>
       <c r="C41">
-        <v>-0.03016427741643777</v>
+        <v>-0.02708589050104991</v>
       </c>
       <c r="D41">
-        <v>-0.0006256571432694348</v>
+        <v>0.001551524041023124</v>
       </c>
       <c r="E41">
-        <v>0.01202078089391644</v>
+        <v>-0.01612914463743079</v>
       </c>
       <c r="F41">
-        <v>-0.02343213923172475</v>
+        <v>-0.002553663269170826</v>
       </c>
       <c r="G41">
-        <v>-0.06909754860824069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02028411584096178</v>
+      </c>
+      <c r="H41">
+        <v>0.008842427752609293</v>
+      </c>
+      <c r="I41">
+        <v>-0.004588237734244187</v>
+      </c>
+      <c r="J41">
+        <v>-0.002605555892775422</v>
+      </c>
+      <c r="K41">
+        <v>0.01391911748455129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07458489673052802</v>
+        <v>0.05020668843363906</v>
       </c>
       <c r="C43">
-        <v>-0.0258142028183145</v>
+        <v>-0.02619512743406236</v>
       </c>
       <c r="D43">
-        <v>-0.02119281973370771</v>
+        <v>-0.02230933456319447</v>
       </c>
       <c r="E43">
-        <v>-0.02448764746437523</v>
+        <v>-0.00468027516076874</v>
       </c>
       <c r="F43">
-        <v>-0.01864220407642293</v>
+        <v>-0.01764732684654449</v>
       </c>
       <c r="G43">
-        <v>-0.01431474097206454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03095069266226425</v>
+      </c>
+      <c r="H43">
+        <v>-0.01066922182410913</v>
+      </c>
+      <c r="I43">
+        <v>-0.003780636125673368</v>
+      </c>
+      <c r="J43">
+        <v>0.0002192191663021546</v>
+      </c>
+      <c r="K43">
+        <v>-0.01310890858593781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07303767911797142</v>
+        <v>0.105176582714977</v>
       </c>
       <c r="C44">
-        <v>-0.01977735561979439</v>
+        <v>-0.08076046441812675</v>
       </c>
       <c r="D44">
-        <v>-0.09867427069638658</v>
+        <v>-0.05776288834041853</v>
       </c>
       <c r="E44">
-        <v>-0.05895684908530376</v>
+        <v>0.02173013007226316</v>
       </c>
       <c r="F44">
-        <v>-0.04114307104830881</v>
+        <v>-0.1308966396233971</v>
       </c>
       <c r="G44">
-        <v>-0.1113441050925094</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.2404395719817174</v>
+      </c>
+      <c r="H44">
+        <v>0.08614083905674821</v>
+      </c>
+      <c r="I44">
+        <v>0.06223187385944828</v>
+      </c>
+      <c r="J44">
+        <v>-0.06916368739367873</v>
+      </c>
+      <c r="K44">
+        <v>0.1349174112624358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04597488521379914</v>
+        <v>0.02983171416040305</v>
       </c>
       <c r="C46">
-        <v>-0.03648531868381685</v>
+        <v>-0.02014045777735112</v>
       </c>
       <c r="D46">
-        <v>-0.03175643843937298</v>
+        <v>-0.01390315437783914</v>
       </c>
       <c r="E46">
-        <v>-0.04969626887320793</v>
+        <v>0.01412191395113255</v>
       </c>
       <c r="F46">
-        <v>-0.01457509797766249</v>
+        <v>-0.04511846305947401</v>
       </c>
       <c r="G46">
-        <v>-0.04254691152199967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05825508619391738</v>
+      </c>
+      <c r="H46">
+        <v>0.009348295109375451</v>
+      </c>
+      <c r="I46">
+        <v>0.01367203585517917</v>
+      </c>
+      <c r="J46">
+        <v>-0.02176065186255246</v>
+      </c>
+      <c r="K46">
+        <v>0.06886118557667124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.0495359049878339</v>
+        <v>0.0422020782532803</v>
       </c>
       <c r="C47">
-        <v>-0.0001476318391225231</v>
+        <v>-0.0177942890218724</v>
       </c>
       <c r="D47">
-        <v>-0.01082113404763326</v>
+        <v>-0.009026147472359906</v>
       </c>
       <c r="E47">
-        <v>-0.06308268883760508</v>
+        <v>0.006575247391111415</v>
       </c>
       <c r="F47">
-        <v>0.005768963336545253</v>
+        <v>-0.008191951575395118</v>
       </c>
       <c r="G47">
-        <v>0.0057210608410596</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04088021644262495</v>
+      </c>
+      <c r="H47">
+        <v>0.01296884613939944</v>
+      </c>
+      <c r="I47">
+        <v>0.006171769360963529</v>
+      </c>
+      <c r="J47">
+        <v>-0.04204112592977183</v>
+      </c>
+      <c r="K47">
+        <v>0.02570643119859593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04379947538068868</v>
+        <v>0.04320089366732437</v>
       </c>
       <c r="C48">
-        <v>0.001564583535225111</v>
+        <v>-0.01016414153699003</v>
       </c>
       <c r="D48">
-        <v>0.002789294918051594</v>
+        <v>-0.005352675088918939</v>
       </c>
       <c r="E48">
-        <v>-0.0360929543418801</v>
+        <v>-0.003865752052251956</v>
       </c>
       <c r="F48">
-        <v>-0.006409621011280973</v>
+        <v>-0.008216098278397588</v>
       </c>
       <c r="G48">
-        <v>-0.04841466034688494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.05989983909312081</v>
+      </c>
+      <c r="H48">
+        <v>0.04391871858322099</v>
+      </c>
+      <c r="I48">
+        <v>0.02136412252440252</v>
+      </c>
+      <c r="J48">
+        <v>0.003153757705157267</v>
+      </c>
+      <c r="K48">
+        <v>0.02405394669664856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2343460718139629</v>
+        <v>0.2279773191973396</v>
       </c>
       <c r="C49">
-        <v>-0.09339956183307482</v>
+        <v>-0.05162007302306836</v>
       </c>
       <c r="D49">
-        <v>-0.02707288252068759</v>
+        <v>0.07754635674093498</v>
       </c>
       <c r="E49">
-        <v>0.09335673474135046</v>
+        <v>-0.04999862625333225</v>
       </c>
       <c r="F49">
-        <v>0.17344973084076</v>
+        <v>-0.003339572636210691</v>
       </c>
       <c r="G49">
-        <v>0.08784463695251686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2176883877987421</v>
+      </c>
+      <c r="H49">
+        <v>-0.1098620029540719</v>
+      </c>
+      <c r="I49">
+        <v>0.1693500229366646</v>
+      </c>
+      <c r="J49">
+        <v>0.2331353221691469</v>
+      </c>
+      <c r="K49">
+        <v>-0.2187701079968401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05541575930197853</v>
+        <v>0.04393533877344493</v>
       </c>
       <c r="C50">
-        <v>-0.01492303453967122</v>
+        <v>-0.02748772845066267</v>
       </c>
       <c r="D50">
-        <v>0.006487059338324261</v>
+        <v>0.002566456659471595</v>
       </c>
       <c r="E50">
-        <v>-0.02937897947603279</v>
+        <v>0.002306959391117254</v>
       </c>
       <c r="F50">
-        <v>-0.05258967937559635</v>
+        <v>0.002371087894411972</v>
       </c>
       <c r="G50">
-        <v>0.003602909839557951</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.05055646168653635</v>
+      </c>
+      <c r="H50">
+        <v>0.02496331670271332</v>
+      </c>
+      <c r="I50">
+        <v>-0.02455360394509721</v>
+      </c>
+      <c r="J50">
+        <v>-0.0270142559758759</v>
+      </c>
+      <c r="K50">
+        <v>-0.02154962854654308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03645152120678377</v>
+        <v>0.0213577645209858</v>
       </c>
       <c r="C51">
-        <v>-0.0130029085437415</v>
+        <v>0.001896005264016684</v>
       </c>
       <c r="D51">
-        <v>-0.01319713090271184</v>
+        <v>-0.01223910179268545</v>
       </c>
       <c r="E51">
-        <v>0.008910197648462728</v>
+        <v>-0.008748089462514643</v>
       </c>
       <c r="F51">
-        <v>0.001692277428977811</v>
+        <v>-0.02216432605037608</v>
       </c>
       <c r="G51">
-        <v>-0.003280093456953719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0325234990285351</v>
+      </c>
+      <c r="H51">
+        <v>-0.002903607221053139</v>
+      </c>
+      <c r="I51">
+        <v>0.01488551073184687</v>
+      </c>
+      <c r="J51">
+        <v>0.03441560731626032</v>
+      </c>
+      <c r="K51">
+        <v>-0.02780051243285617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06885343216959521</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03600610181867398</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.0138859877134956</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02100338133658846</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01254640043986215</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.05971199326870334</v>
+      </c>
+      <c r="H52">
+        <v>-0.05491372420087388</v>
+      </c>
+      <c r="I52">
+        <v>-0.1164049987924049</v>
+      </c>
+      <c r="J52">
+        <v>-0.01505924827155795</v>
+      </c>
+      <c r="K52">
+        <v>0.01205911482315397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1580736059314326</v>
+        <v>0.1616229891204607</v>
       </c>
       <c r="C53">
-        <v>0.0009981217365335284</v>
+        <v>-0.03513580837994496</v>
       </c>
       <c r="D53">
-        <v>-0.01241400535225941</v>
+        <v>0.007554184430033159</v>
       </c>
       <c r="E53">
-        <v>0.04913351150601394</v>
+        <v>-0.01702243653593237</v>
       </c>
       <c r="F53">
-        <v>-0.2354762227740134</v>
+        <v>-0.01591089166910254</v>
       </c>
       <c r="G53">
-        <v>0.06495805382687773</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.004932663611866794</v>
+      </c>
+      <c r="H53">
+        <v>-0.1394267411572144</v>
+      </c>
+      <c r="I53">
+        <v>-0.2599462012943596</v>
+      </c>
+      <c r="J53">
+        <v>-0.09894258921096347</v>
+      </c>
+      <c r="K53">
+        <v>-0.05286260799286956</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.053909765344637</v>
+        <v>0.05316554263799598</v>
       </c>
       <c r="C54">
-        <v>-0.00560055655808902</v>
+        <v>-0.03763819304287616</v>
       </c>
       <c r="D54">
-        <v>-0.02885420039195502</v>
+        <v>-0.0005602231492837451</v>
       </c>
       <c r="E54">
-        <v>-0.04304430321866243</v>
+        <v>0.01566098811593479</v>
       </c>
       <c r="F54">
-        <v>-0.01436896161291902</v>
+        <v>-0.02012609813162759</v>
       </c>
       <c r="G54">
-        <v>-0.08020646916172734</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.07531590321287254</v>
+      </c>
+      <c r="H54">
+        <v>0.1305273942560143</v>
+      </c>
+      <c r="I54">
+        <v>0.001101429616058318</v>
+      </c>
+      <c r="J54">
+        <v>-0.1033802276401682</v>
+      </c>
+      <c r="K54">
+        <v>0.098428459141264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09500178660727406</v>
+        <v>0.08914047361902276</v>
       </c>
       <c r="C55">
-        <v>-0.01087516336701821</v>
+        <v>-0.03058014466994997</v>
       </c>
       <c r="D55">
-        <v>-0.0209796352820015</v>
+        <v>-0.04968759099028231</v>
       </c>
       <c r="E55">
-        <v>-0.003427289547715644</v>
+        <v>-0.03978794784116713</v>
       </c>
       <c r="F55">
-        <v>-0.181908271095718</v>
+        <v>-0.02258172483930403</v>
       </c>
       <c r="G55">
-        <v>0.01474669474359424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009662846463192879</v>
+      </c>
+      <c r="H55">
+        <v>-0.04043709571627724</v>
+      </c>
+      <c r="I55">
+        <v>-0.1648683450523893</v>
+      </c>
+      <c r="J55">
+        <v>-0.04454387050319675</v>
+      </c>
+      <c r="K55">
+        <v>-0.01269136604772695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1614962450717788</v>
+        <v>0.1591380946899314</v>
       </c>
       <c r="C56">
-        <v>0.00561621684208881</v>
+        <v>-0.04550670213149233</v>
       </c>
       <c r="D56">
-        <v>-0.008163775689830684</v>
+        <v>-0.01616827962248193</v>
       </c>
       <c r="E56">
-        <v>0.04859048190271824</v>
+        <v>-0.04665695472981388</v>
       </c>
       <c r="F56">
-        <v>-0.2329659941027736</v>
+        <v>-0.03086909997396272</v>
       </c>
       <c r="G56">
-        <v>0.06884466670174488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.040869884851017</v>
+      </c>
+      <c r="H56">
+        <v>-0.1096778250469113</v>
+      </c>
+      <c r="I56">
+        <v>-0.2132765339434206</v>
+      </c>
+      <c r="J56">
+        <v>-0.06336762897101086</v>
+      </c>
+      <c r="K56">
+        <v>-0.05870334386258391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03579061867642316</v>
+        <v>0.0447271058958486</v>
       </c>
       <c r="C58">
-        <v>-0.05347865437145979</v>
+        <v>-0.04014045798747848</v>
       </c>
       <c r="D58">
-        <v>0.02526141605319226</v>
+        <v>-0.0151701339266079</v>
       </c>
       <c r="E58">
-        <v>-0.2891085351619364</v>
+        <v>0.07707568320329823</v>
       </c>
       <c r="F58">
-        <v>0.4617857581999426</v>
+        <v>-0.03352041705952455</v>
       </c>
       <c r="G58">
-        <v>-0.1533567222352828</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1105079422889616</v>
+      </c>
+      <c r="H58">
+        <v>-0.03502327382456888</v>
+      </c>
+      <c r="I58">
+        <v>0.1987250402319297</v>
+      </c>
+      <c r="J58">
+        <v>0.06290842641127184</v>
+      </c>
+      <c r="K58">
+        <v>0.2105342016414052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1601445931832743</v>
+        <v>0.1916490243455801</v>
       </c>
       <c r="C59">
-        <v>0.3886735522908306</v>
+        <v>0.3032520288510377</v>
       </c>
       <c r="D59">
-        <v>-0.08375709826589492</v>
+        <v>-0.01504538890130941</v>
       </c>
       <c r="E59">
-        <v>0.0761218554321149</v>
+        <v>-0.04308818764013315</v>
       </c>
       <c r="F59">
-        <v>-0.04615890518419926</v>
+        <v>-0.009827839234195576</v>
       </c>
       <c r="G59">
-        <v>-0.03037747116963184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03123317327831333</v>
+      </c>
+      <c r="H59">
+        <v>0.06622034909756981</v>
+      </c>
+      <c r="I59">
+        <v>-0.0779093351975898</v>
+      </c>
+      <c r="J59">
+        <v>0.004333393113250952</v>
+      </c>
+      <c r="K59">
+        <v>0.003291684478200725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2639892080040112</v>
+        <v>0.2520450985671104</v>
       </c>
       <c r="C60">
-        <v>-0.06958221682412648</v>
+        <v>-0.106828083359264</v>
       </c>
       <c r="D60">
-        <v>-0.07446483730496561</v>
+        <v>0.08123062003219005</v>
       </c>
       <c r="E60">
-        <v>0.08142278656576625</v>
+        <v>-0.06711786408083105</v>
       </c>
       <c r="F60">
-        <v>0.08101502918144461</v>
+        <v>-0.04059062502196997</v>
       </c>
       <c r="G60">
-        <v>0.1987953642340659</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09841617830878124</v>
+      </c>
+      <c r="H60">
+        <v>-0.09206651273742973</v>
+      </c>
+      <c r="I60">
+        <v>0.1122538438729772</v>
+      </c>
+      <c r="J60">
+        <v>-0.007441906066821407</v>
+      </c>
+      <c r="K60">
+        <v>-0.2278325214593238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09260157510635804</v>
+        <v>0.1045784527941429</v>
       </c>
       <c r="C61">
-        <v>-0.02036349665179114</v>
+        <v>-0.04561720075637258</v>
       </c>
       <c r="D61">
-        <v>-0.004851217569163618</v>
+        <v>-0.04540765171562446</v>
       </c>
       <c r="E61">
-        <v>-0.02276768216314225</v>
+        <v>-0.07734780202309749</v>
       </c>
       <c r="F61">
-        <v>-0.0217305788204005</v>
+        <v>-0.008822706288792129</v>
       </c>
       <c r="G61">
-        <v>-0.0633455940142159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1305404163313273</v>
+      </c>
+      <c r="H61">
+        <v>0.06907689839643046</v>
+      </c>
+      <c r="I61">
+        <v>-0.04642027078779157</v>
+      </c>
+      <c r="J61">
+        <v>0.1011095208679881</v>
+      </c>
+      <c r="K61">
+        <v>0.01030050831096469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1454854465777667</v>
+        <v>0.1511475131147501</v>
       </c>
       <c r="C62">
-        <v>-0.02611710138869344</v>
+        <v>-0.04781517804829773</v>
       </c>
       <c r="D62">
-        <v>0.03216150191679497</v>
+        <v>-0.01794919217933362</v>
       </c>
       <c r="E62">
-        <v>0.1189904329656384</v>
+        <v>-0.03961839502700523</v>
       </c>
       <c r="F62">
-        <v>-0.2416162580276268</v>
+        <v>-0.003841278344794417</v>
       </c>
       <c r="G62">
-        <v>0.03407242869813137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01016474965497429</v>
+      </c>
+      <c r="H62">
+        <v>-0.1159642748484297</v>
+      </c>
+      <c r="I62">
+        <v>-0.2142013303130844</v>
+      </c>
+      <c r="J62">
+        <v>-0.09358063234315493</v>
+      </c>
+      <c r="K62">
+        <v>-0.03677441642983104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04169825323391938</v>
+        <v>0.04165495271498632</v>
       </c>
       <c r="C63">
-        <v>-0.01334459498468167</v>
+        <v>-0.01340306617442253</v>
       </c>
       <c r="D63">
-        <v>0.007770001264610539</v>
+        <v>-0.01653204473899306</v>
       </c>
       <c r="E63">
-        <v>-0.01397312376161215</v>
+        <v>0.00634108515340771</v>
       </c>
       <c r="F63">
-        <v>-0.01752515826961819</v>
+        <v>0.02232207896445592</v>
       </c>
       <c r="G63">
-        <v>-0.04705744829639261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.05010047177771765</v>
+      </c>
+      <c r="H63">
+        <v>0.05170136886221262</v>
+      </c>
+      <c r="I63">
+        <v>0.0157453981721274</v>
+      </c>
+      <c r="J63">
+        <v>-0.0007792858366812437</v>
+      </c>
+      <c r="K63">
+        <v>-0.006706772148543316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1051861412226935</v>
+        <v>0.09935484132303195</v>
       </c>
       <c r="C64">
-        <v>-0.01271647665571016</v>
+        <v>-0.03775017966259976</v>
       </c>
       <c r="D64">
-        <v>-0.0373530615884805</v>
+        <v>0.009790957522043462</v>
       </c>
       <c r="E64">
-        <v>-0.03333558555133091</v>
+        <v>-0.01698610405426528</v>
       </c>
       <c r="F64">
-        <v>0.0266817107292126</v>
+        <v>-0.04742002339307717</v>
       </c>
       <c r="G64">
-        <v>-0.05064334410842097</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07719340378362488</v>
+      </c>
+      <c r="H64">
+        <v>0.04478814443630959</v>
+      </c>
+      <c r="I64">
+        <v>0.07936423343037277</v>
+      </c>
+      <c r="J64">
+        <v>0.02235798102823087</v>
+      </c>
+      <c r="K64">
+        <v>-0.05774158927783472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1215972295724534</v>
+        <v>0.1180841121285181</v>
       </c>
       <c r="C65">
-        <v>-0.02891130835640539</v>
+        <v>-0.02913179851430392</v>
       </c>
       <c r="D65">
-        <v>-0.02540707689338932</v>
+        <v>0.003229660190269411</v>
       </c>
       <c r="E65">
-        <v>-0.05823388992774221</v>
+        <v>0.0159097873869008</v>
       </c>
       <c r="F65">
-        <v>0.1895536301642941</v>
+        <v>0.03228914699525526</v>
       </c>
       <c r="G65">
-        <v>0.153009362983465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.04467552212561689</v>
+      </c>
+      <c r="H65">
+        <v>0.03072201065538314</v>
+      </c>
+      <c r="I65">
+        <v>0.2754888615176335</v>
+      </c>
+      <c r="J65">
+        <v>-0.5017375303931517</v>
+      </c>
+      <c r="K65">
+        <v>-0.2665584630655728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1589583442152323</v>
+        <v>0.1407933897024819</v>
       </c>
       <c r="C66">
-        <v>-0.05529796787376218</v>
+        <v>-0.1042732850916694</v>
       </c>
       <c r="D66">
-        <v>0.02162914357975368</v>
+        <v>-0.07038944435145672</v>
       </c>
       <c r="E66">
-        <v>-0.0185995563243832</v>
+        <v>-0.1105033294142533</v>
       </c>
       <c r="F66">
-        <v>-0.04341819026162873</v>
+        <v>0.02708748955037631</v>
       </c>
       <c r="G66">
-        <v>-0.2943664344939203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1493687503946391</v>
+      </c>
+      <c r="H66">
+        <v>0.03094697852252161</v>
+      </c>
+      <c r="I66">
+        <v>-0.02212635658354405</v>
+      </c>
+      <c r="J66">
+        <v>0.2234293964865549</v>
+      </c>
+      <c r="K66">
+        <v>-0.09749184766815649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1017538014622167</v>
+        <v>0.06695273142571635</v>
       </c>
       <c r="C67">
-        <v>-0.04120773034710017</v>
+        <v>-0.03735634483066137</v>
       </c>
       <c r="D67">
-        <v>-0.01726032464657055</v>
+        <v>-0.06155504362607742</v>
       </c>
       <c r="E67">
-        <v>0.01597447713885919</v>
+        <v>-0.005237864872874937</v>
       </c>
       <c r="F67">
-        <v>-0.001499879656285154</v>
+        <v>-0.04037777733929709</v>
       </c>
       <c r="G67">
-        <v>-0.04258425338400689</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0543743643085649</v>
+      </c>
+      <c r="H67">
+        <v>-0.02127249203550819</v>
+      </c>
+      <c r="I67">
+        <v>-0.02835669426920584</v>
+      </c>
+      <c r="J67">
+        <v>0.02081614530158984</v>
+      </c>
+      <c r="K67">
+        <v>-0.04948545600348751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.0441777757858683</v>
+        <v>0.1022222712545029</v>
       </c>
       <c r="C68">
-        <v>0.2936667939925076</v>
+        <v>0.2791418697833821</v>
       </c>
       <c r="D68">
-        <v>-0.03621961084057441</v>
+        <v>-0.00606221840292079</v>
       </c>
       <c r="E68">
-        <v>0.008186078944232462</v>
+        <v>-0.004274975166754955</v>
       </c>
       <c r="F68">
-        <v>0.01222297766292419</v>
+        <v>0.01671604037362537</v>
       </c>
       <c r="G68">
-        <v>0.02176262445803649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02620957973794332</v>
+      </c>
+      <c r="H68">
+        <v>0.0296651709311156</v>
+      </c>
+      <c r="I68">
+        <v>0.001996417873804159</v>
+      </c>
+      <c r="J68">
+        <v>-0.01742585421858659</v>
+      </c>
+      <c r="K68">
+        <v>-0.01096294761511501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04574751708299187</v>
+        <v>0.03668382657673884</v>
       </c>
       <c r="C69">
-        <v>-0.01589795683059934</v>
+        <v>-6.014307151868762e-06</v>
       </c>
       <c r="D69">
-        <v>-0.01007519662473758</v>
+        <v>-0.02670544110924955</v>
       </c>
       <c r="E69">
-        <v>0.003123922546841478</v>
+        <v>-0.009414987696404881</v>
       </c>
       <c r="F69">
-        <v>-0.01611683278572709</v>
+        <v>-0.02034891448943326</v>
       </c>
       <c r="G69">
-        <v>-0.03065337461327859</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.009016182664418585</v>
+      </c>
+      <c r="H69">
+        <v>0.0001517693631867596</v>
+      </c>
+      <c r="I69">
+        <v>-0.006369917012031462</v>
+      </c>
+      <c r="J69">
+        <v>-0.02949273695815733</v>
+      </c>
+      <c r="K69">
+        <v>-0.01229843129020448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07636889405613458</v>
+        <v>0.04688886262335615</v>
       </c>
       <c r="C70">
-        <v>-0.007085534353208727</v>
+        <v>-0.01003874509089584</v>
       </c>
       <c r="D70">
-        <v>-0.03729441853249849</v>
+        <v>-0.0222689518327381</v>
       </c>
       <c r="E70">
-        <v>0.03697758826676788</v>
+        <v>-0.04704578760930595</v>
       </c>
       <c r="F70">
-        <v>0.08649295043876312</v>
+        <v>-0.02467034662057319</v>
       </c>
       <c r="G70">
-        <v>-1.157276748297136e-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02717504231289541</v>
+      </c>
+      <c r="H70">
+        <v>0.01446217815022172</v>
+      </c>
+      <c r="I70">
+        <v>0.08888604403662805</v>
+      </c>
+      <c r="J70">
+        <v>-0.1126611809789982</v>
+      </c>
+      <c r="K70">
+        <v>0.1639815115067039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05247619005200169</v>
+        <v>0.1172283295005334</v>
       </c>
       <c r="C71">
-        <v>0.2971118115896262</v>
+        <v>0.2922900372706075</v>
       </c>
       <c r="D71">
-        <v>-0.05361274403625429</v>
+        <v>0.004656596774208883</v>
       </c>
       <c r="E71">
-        <v>0.01282078980146152</v>
+        <v>-0.0094567775279897</v>
       </c>
       <c r="F71">
-        <v>0.01551451128502337</v>
+        <v>-0.009554734480186044</v>
       </c>
       <c r="G71">
-        <v>-0.01104304362231586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0443081008764734</v>
+      </c>
+      <c r="H71">
+        <v>0.02047497930225553</v>
+      </c>
+      <c r="I71">
+        <v>-0.0004308028473203144</v>
+      </c>
+      <c r="J71">
+        <v>0.01151090387089732</v>
+      </c>
+      <c r="K71">
+        <v>-0.03833321467537707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.149435545172425</v>
+        <v>0.1459936153757192</v>
       </c>
       <c r="C72">
-        <v>0.04359397659157904</v>
+        <v>-0.01411402199167377</v>
       </c>
       <c r="D72">
-        <v>0.2366550070828503</v>
+        <v>-0.03453144647317776</v>
       </c>
       <c r="E72">
-        <v>0.02544662835075454</v>
+        <v>0.03985846916948289</v>
       </c>
       <c r="F72">
-        <v>-0.03938137286239956</v>
+        <v>0.09027001708055467</v>
       </c>
       <c r="G72">
-        <v>-0.05911302945255657</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.006112710213194393</v>
+      </c>
+      <c r="H72">
+        <v>-0.0174221954875057</v>
+      </c>
+      <c r="I72">
+        <v>-0.03372446227781909</v>
+      </c>
+      <c r="J72">
+        <v>-0.1025151737447243</v>
+      </c>
+      <c r="K72">
+        <v>-0.1336870618566565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2861324963189342</v>
+        <v>0.2367815852880816</v>
       </c>
       <c r="C73">
-        <v>-0.1581305051422927</v>
+        <v>-0.1175635430794236</v>
       </c>
       <c r="D73">
-        <v>-0.04551579621030467</v>
+        <v>0.005725571909611117</v>
       </c>
       <c r="E73">
-        <v>0.1588853727736829</v>
+        <v>-0.1549512578202015</v>
       </c>
       <c r="F73">
-        <v>0.3047292586556391</v>
+        <v>-0.08852428476266924</v>
       </c>
       <c r="G73">
-        <v>0.2502000118373297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3162398157545773</v>
+      </c>
+      <c r="H73">
+        <v>-0.2774963738252997</v>
+      </c>
+      <c r="I73">
+        <v>0.3117242696155884</v>
+      </c>
+      <c r="J73">
+        <v>0.2831173592871372</v>
+      </c>
+      <c r="K73">
+        <v>-0.1372054168639038</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.0973614861639828</v>
+        <v>0.113475013067347</v>
       </c>
       <c r="C74">
-        <v>-0.03941870496083691</v>
+        <v>-0.06056431559057163</v>
       </c>
       <c r="D74">
-        <v>1.189969775269895e-05</v>
+        <v>-0.03268553901814284</v>
       </c>
       <c r="E74">
-        <v>0.01151390139310574</v>
+        <v>-0.01885775702534706</v>
       </c>
       <c r="F74">
-        <v>-0.09602565976381115</v>
+        <v>-0.01338919624169677</v>
       </c>
       <c r="G74">
-        <v>0.02794073007559785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04578954082554595</v>
+      </c>
+      <c r="H74">
+        <v>-0.1151911411137579</v>
+      </c>
+      <c r="I74">
+        <v>-0.1113713585655537</v>
+      </c>
+      <c r="J74">
+        <v>-0.03964002979157135</v>
+      </c>
+      <c r="K74">
+        <v>-0.02056776295877969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09350331271962461</v>
+        <v>0.1073299699956667</v>
       </c>
       <c r="C75">
-        <v>-0.01404069096532115</v>
+        <v>-0.04513956936783386</v>
       </c>
       <c r="D75">
-        <v>0.01843549000979069</v>
+        <v>-0.006856928021635859</v>
       </c>
       <c r="E75">
-        <v>0.03487007644135759</v>
+        <v>-0.009852140211775521</v>
       </c>
       <c r="F75">
-        <v>-0.115366422172857</v>
+        <v>0.003034973197428608</v>
       </c>
       <c r="G75">
-        <v>0.06457798287175719</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.0007942910998776663</v>
+      </c>
+      <c r="H75">
+        <v>-0.06676146467840119</v>
+      </c>
+      <c r="I75">
+        <v>-0.1381049679074906</v>
+      </c>
+      <c r="J75">
+        <v>-0.04612110008251947</v>
+      </c>
+      <c r="K75">
+        <v>0.009322062211883435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1370289635955071</v>
+        <v>0.05919298946357625</v>
       </c>
       <c r="C76">
-        <v>-0.0286842116358936</v>
+        <v>-0.02836915040553842</v>
       </c>
       <c r="D76">
-        <v>-0.01971110174953526</v>
+        <v>-0.02941524082476712</v>
       </c>
       <c r="E76">
-        <v>-0.0205970827270071</v>
+        <v>-0.01525274509369874</v>
       </c>
       <c r="F76">
-        <v>-0.2191918736913144</v>
+        <v>-0.03900191924627483</v>
       </c>
       <c r="G76">
-        <v>0.1031721862958295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04604735712718088</v>
+      </c>
+      <c r="H76">
+        <v>-0.05984000172481975</v>
+      </c>
+      <c r="I76">
+        <v>-0.1365576704949368</v>
+      </c>
+      <c r="J76">
+        <v>-0.038118471558749</v>
+      </c>
+      <c r="K76">
+        <v>-0.006381716380478787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08869515876769962</v>
+        <v>0.07266117067715598</v>
       </c>
       <c r="C77">
-        <v>0.007705801682562615</v>
+        <v>-0.03139271780308078</v>
       </c>
       <c r="D77">
-        <v>-0.04058685030461093</v>
+        <v>0.02140923850788761</v>
       </c>
       <c r="E77">
-        <v>-0.04915970230134714</v>
+        <v>-0.009201805233889547</v>
       </c>
       <c r="F77">
-        <v>0.161787347265407</v>
+        <v>-0.0385400357459664</v>
       </c>
       <c r="G77">
-        <v>-0.1727575560186885</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09214562973603332</v>
+      </c>
+      <c r="H77">
+        <v>0.2252095278938122</v>
+      </c>
+      <c r="I77">
+        <v>0.1411374885444598</v>
+      </c>
+      <c r="J77">
+        <v>-0.08939965538421765</v>
+      </c>
+      <c r="K77">
+        <v>-0.1528584277131041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2148890222047958</v>
+        <v>0.144623046475375</v>
       </c>
       <c r="C78">
-        <v>-0.07104777285366136</v>
+        <v>-0.1264430808996694</v>
       </c>
       <c r="D78">
-        <v>-0.06788914160317605</v>
+        <v>-0.08577876089833485</v>
       </c>
       <c r="E78">
-        <v>-0.1762540517750573</v>
+        <v>0.1963831793561432</v>
       </c>
       <c r="F78">
-        <v>-0.01885921522414448</v>
+        <v>-0.1172302268752452</v>
       </c>
       <c r="G78">
-        <v>-0.1171189773294567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.5650132024049426</v>
+      </c>
+      <c r="H78">
+        <v>0.6379021720286989</v>
+      </c>
+      <c r="I78">
+        <v>-0.2797653648832611</v>
+      </c>
+      <c r="J78">
+        <v>0.04169212649978681</v>
+      </c>
+      <c r="K78">
+        <v>0.008968432597939438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1352762877589826</v>
+        <v>0.1360887783555076</v>
       </c>
       <c r="C79">
-        <v>-0.009799711611381413</v>
+        <v>-0.0464322258983202</v>
       </c>
       <c r="D79">
-        <v>-0.001145176202070588</v>
+        <v>0.008382203606090025</v>
       </c>
       <c r="E79">
-        <v>0.01668269734571708</v>
+        <v>-0.01638454936434054</v>
       </c>
       <c r="F79">
-        <v>-0.1631571908594655</v>
+        <v>-0.001090834973879819</v>
       </c>
       <c r="G79">
-        <v>0.0001466994567866508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03392051118355741</v>
+      </c>
+      <c r="H79">
+        <v>-0.0745945877461304</v>
+      </c>
+      <c r="I79">
+        <v>-0.1507355109984053</v>
+      </c>
+      <c r="J79">
+        <v>-0.0770988531808727</v>
+      </c>
+      <c r="K79">
+        <v>-0.04795376437961483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03394629170856877</v>
+        <v>0.06182105094138607</v>
       </c>
       <c r="C80">
-        <v>-0.01026562118842951</v>
+        <v>-0.04118109104819249</v>
       </c>
       <c r="D80">
-        <v>-0.01730709946322529</v>
+        <v>-0.04056343627590034</v>
       </c>
       <c r="E80">
-        <v>0.02895223013285762</v>
+        <v>-0.0696453376279568</v>
       </c>
       <c r="F80">
-        <v>0.02067177409855592</v>
+        <v>-0.01916061927563186</v>
       </c>
       <c r="G80">
-        <v>-0.07597141941284344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03115408606747463</v>
+      </c>
+      <c r="H80">
+        <v>0.04973626533018965</v>
+      </c>
+      <c r="I80">
+        <v>0.00467141232461467</v>
+      </c>
+      <c r="J80">
+        <v>0.004248825005434493</v>
+      </c>
+      <c r="K80">
+        <v>0.1196922000868572</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1085833388570911</v>
+        <v>0.1309057630167294</v>
       </c>
       <c r="C81">
-        <v>-0.01094378322919566</v>
+        <v>-0.05316387123983792</v>
       </c>
       <c r="D81">
-        <v>-0.01195210260955674</v>
+        <v>-0.003860502706097718</v>
       </c>
       <c r="E81">
-        <v>0.01740906531089812</v>
+        <v>-0.01768167205279644</v>
       </c>
       <c r="F81">
-        <v>-0.1407587012023127</v>
+        <v>-0.01422091395140106</v>
       </c>
       <c r="G81">
-        <v>0.04245499105469632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05092018416506576</v>
+      </c>
+      <c r="H81">
+        <v>-0.04994144642354119</v>
+      </c>
+      <c r="I81">
+        <v>-0.1386571472283508</v>
+      </c>
+      <c r="J81">
+        <v>-0.03034765149194458</v>
+      </c>
+      <c r="K81">
+        <v>0.005684846090942214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1091474330442079</v>
+        <v>0.1433970413164526</v>
       </c>
       <c r="C82">
-        <v>-0.02385339057966408</v>
+        <v>-0.04420033197574871</v>
       </c>
       <c r="D82">
-        <v>-0.05797163136113679</v>
+        <v>0.001846260593706657</v>
       </c>
       <c r="E82">
-        <v>0.05924388664968849</v>
+        <v>-0.06366852093377341</v>
       </c>
       <c r="F82">
-        <v>-0.2198055442397747</v>
+        <v>-0.01813258074463845</v>
       </c>
       <c r="G82">
-        <v>0.0004608179872462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05776616476272058</v>
+      </c>
+      <c r="H82">
+        <v>-0.1567125903214258</v>
+      </c>
+      <c r="I82">
+        <v>-0.2648386928497788</v>
+      </c>
+      <c r="J82">
+        <v>-0.01190601839058566</v>
+      </c>
+      <c r="K82">
+        <v>0.05847146439551062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1026727801495494</v>
+        <v>0.09175400523029641</v>
       </c>
       <c r="C83">
-        <v>-0.05689613185362397</v>
+        <v>-0.1055070833377074</v>
       </c>
       <c r="D83">
-        <v>-0.05644671883578449</v>
+        <v>-0.01557410835859074</v>
       </c>
       <c r="E83">
-        <v>0.02816544355400335</v>
+        <v>-0.01656090070954343</v>
       </c>
       <c r="F83">
-        <v>0.07905244758201294</v>
+        <v>-0.0329821378559467</v>
       </c>
       <c r="G83">
-        <v>-0.07396128308108189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04365363001098786</v>
+      </c>
+      <c r="H83">
+        <v>0.03023181032142565</v>
+      </c>
+      <c r="I83">
+        <v>0.04602595838475221</v>
+      </c>
+      <c r="J83">
+        <v>-0.1177558246499529</v>
+      </c>
+      <c r="K83">
+        <v>0.1047018189321185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05501870177734425</v>
+        <v>0.05599574214417803</v>
       </c>
       <c r="C84">
-        <v>-0.02271914667563274</v>
+        <v>0.02804347030571458</v>
       </c>
       <c r="D84">
-        <v>0.04227563041456282</v>
+        <v>0.03246224982732919</v>
       </c>
       <c r="E84">
-        <v>-0.03511356520778994</v>
+        <v>-0.01376890419992104</v>
       </c>
       <c r="F84">
-        <v>-0.03209401406062384</v>
+        <v>0.02053717911077265</v>
       </c>
       <c r="G84">
-        <v>0.02983715755954768</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.07392609166277281</v>
+      </c>
+      <c r="H84">
+        <v>0.06851815332468543</v>
+      </c>
+      <c r="I84">
+        <v>0.02726166783113721</v>
+      </c>
+      <c r="J84">
+        <v>0.3402741894851191</v>
+      </c>
+      <c r="K84">
+        <v>0.1612543608339244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1017493605594872</v>
+        <v>0.1193817880620063</v>
       </c>
       <c r="C85">
-        <v>-0.01898606986952542</v>
+        <v>-0.04172391374097543</v>
       </c>
       <c r="D85">
-        <v>-0.0261958133949051</v>
+        <v>0.004428207015809254</v>
       </c>
       <c r="E85">
-        <v>0.02143431720149707</v>
+        <v>-0.03791220561578256</v>
       </c>
       <c r="F85">
-        <v>-0.1982689636187832</v>
+        <v>-0.02954664882031263</v>
       </c>
       <c r="G85">
-        <v>0.01756033865205169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.033775714956654</v>
+      </c>
+      <c r="H85">
+        <v>-0.06965156587191017</v>
+      </c>
+      <c r="I85">
+        <v>-0.175453683776906</v>
+      </c>
+      <c r="J85">
+        <v>-0.06200914368821749</v>
+      </c>
+      <c r="K85">
+        <v>-0.05083019013823347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06890278431880829</v>
+        <v>0.1381944365331647</v>
       </c>
       <c r="C86">
-        <v>-0.02321512425991847</v>
+        <v>-0.097070785224186</v>
       </c>
       <c r="D86">
-        <v>-0.05110506692467227</v>
+        <v>0.8832155379434794</v>
       </c>
       <c r="E86">
-        <v>-0.04872852782990107</v>
+        <v>0.2105922758950872</v>
       </c>
       <c r="F86">
-        <v>0.01964633015745944</v>
+        <v>0.2607391866251925</v>
       </c>
       <c r="G86">
-        <v>-0.1331587533640252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.09302119827861557</v>
+      </c>
+      <c r="H86">
+        <v>0.08277431159724519</v>
+      </c>
+      <c r="I86">
+        <v>-0.05643730157395965</v>
+      </c>
+      <c r="J86">
+        <v>0.05632826397102684</v>
+      </c>
+      <c r="K86">
+        <v>0.04096177936293405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1035897732882592</v>
+        <v>0.1086433905211056</v>
       </c>
       <c r="C87">
-        <v>-0.05965004696602304</v>
+        <v>-0.0928749763523557</v>
       </c>
       <c r="D87">
-        <v>-0.02220981276739712</v>
+        <v>-0.005895049767048664</v>
       </c>
       <c r="E87">
-        <v>-0.05816436117838524</v>
+        <v>0.004135027692742105</v>
       </c>
       <c r="F87">
-        <v>0.01412234358155056</v>
+        <v>-0.03807292269154035</v>
       </c>
       <c r="G87">
-        <v>-0.1115386508346187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07949822579892564</v>
+      </c>
+      <c r="H87">
+        <v>0.1154031844608537</v>
+      </c>
+      <c r="I87">
+        <v>0.1332124590811603</v>
+      </c>
+      <c r="J87">
+        <v>-0.1055027495836886</v>
+      </c>
+      <c r="K87">
+        <v>0.03959584412339454</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06923475764169698</v>
+        <v>0.05805217383740045</v>
       </c>
       <c r="C88">
-        <v>-0.03580228620684779</v>
+        <v>-0.04741365148171355</v>
       </c>
       <c r="D88">
-        <v>-0.02358407085212407</v>
+        <v>-0.0219435746894187</v>
       </c>
       <c r="E88">
-        <v>-0.0107160672149265</v>
+        <v>-0.05859321509815001</v>
       </c>
       <c r="F88">
-        <v>-0.002255653162868246</v>
+        <v>-0.003639066801734556</v>
       </c>
       <c r="G88">
-        <v>-0.061289030316739</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02855818932426485</v>
+      </c>
+      <c r="H88">
+        <v>0.006810758612805907</v>
+      </c>
+      <c r="I88">
+        <v>0.01011246638985872</v>
+      </c>
+      <c r="J88">
+        <v>0.01972401853078902</v>
+      </c>
+      <c r="K88">
+        <v>-0.01137825758526792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09808101662389103</v>
+        <v>0.1696405321025481</v>
       </c>
       <c r="C89">
-        <v>0.3669447062711427</v>
+        <v>0.3723302743430065</v>
       </c>
       <c r="D89">
-        <v>-0.1081651992362481</v>
+        <v>0.0191111916033698</v>
       </c>
       <c r="E89">
-        <v>-0.01555717260615403</v>
+        <v>0.02868523460809414</v>
       </c>
       <c r="F89">
-        <v>0.06663384680615619</v>
+        <v>-0.06258282543522618</v>
       </c>
       <c r="G89">
-        <v>-0.01543295994711564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.007578837728349493</v>
+      </c>
+      <c r="H89">
+        <v>0.04388534610932624</v>
+      </c>
+      <c r="I89">
+        <v>0.03005928873386196</v>
+      </c>
+      <c r="J89">
+        <v>0.01406550227776478</v>
+      </c>
+      <c r="K89">
+        <v>0.08176407803925431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07842586799705396</v>
+        <v>0.1336331009505073</v>
       </c>
       <c r="C90">
-        <v>0.2968289098057039</v>
+        <v>0.2778263423944743</v>
       </c>
       <c r="D90">
-        <v>-0.04923192940886969</v>
+        <v>0.008172745370522944</v>
       </c>
       <c r="E90">
-        <v>-0.04306186218794342</v>
+        <v>-0.01218137095025739</v>
       </c>
       <c r="F90">
-        <v>0.05704259523922511</v>
+        <v>-0.01186867888029088</v>
       </c>
       <c r="G90">
-        <v>-0.04867746947543792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03409522739589518</v>
+      </c>
+      <c r="H90">
+        <v>0.03167546664519299</v>
+      </c>
+      <c r="I90">
+        <v>0.05011434920402106</v>
+      </c>
+      <c r="J90">
+        <v>0.04675999868054943</v>
+      </c>
+      <c r="K90">
+        <v>-0.03532028626536458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08438201326597733</v>
+        <v>0.08220584119332247</v>
       </c>
       <c r="C91">
-        <v>-0.02163579452604641</v>
+        <v>-0.03779908690052834</v>
       </c>
       <c r="D91">
-        <v>-0.005584285760154384</v>
+        <v>0.01795442276649649</v>
       </c>
       <c r="E91">
-        <v>0.01655758322464078</v>
+        <v>-0.0136097123451561</v>
       </c>
       <c r="F91">
-        <v>-0.08280884456200407</v>
+        <v>-0.01325714054707048</v>
       </c>
       <c r="G91">
-        <v>0.06669060218865527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.009363511922327348</v>
+      </c>
+      <c r="H91">
+        <v>-0.06266046643287485</v>
+      </c>
+      <c r="I91">
+        <v>-0.1115188633340743</v>
+      </c>
+      <c r="J91">
+        <v>-0.04428245228820933</v>
+      </c>
+      <c r="K91">
+        <v>0.007372791509537391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07419900852850571</v>
+        <v>0.1438801575553977</v>
       </c>
       <c r="C92">
-        <v>0.3421973598927556</v>
+        <v>0.3309599066793165</v>
       </c>
       <c r="D92">
-        <v>-0.06908896995830535</v>
+        <v>0.00325034137848839</v>
       </c>
       <c r="E92">
-        <v>-0.0184909323469131</v>
+        <v>0.02837915052562194</v>
       </c>
       <c r="F92">
-        <v>0.04266697684691343</v>
+        <v>-0.03489708610989087</v>
       </c>
       <c r="G92">
-        <v>0.03165250521912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01408462753847815</v>
+      </c>
+      <c r="H92">
+        <v>0.06616418916928123</v>
+      </c>
+      <c r="I92">
+        <v>-0.03551754192471138</v>
+      </c>
+      <c r="J92">
+        <v>0.0205780981226636</v>
+      </c>
+      <c r="K92">
+        <v>0.004012293033896546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.09037125066800944</v>
+        <v>0.1387333315044698</v>
       </c>
       <c r="C93">
-        <v>0.2950574172368778</v>
+        <v>0.3099278001148537</v>
       </c>
       <c r="D93">
-        <v>-0.05243830385533142</v>
+        <v>0.03425279677544409</v>
       </c>
       <c r="E93">
-        <v>-0.006941181839355536</v>
+        <v>-0.03080880185536346</v>
       </c>
       <c r="F93">
-        <v>0.02126875864329641</v>
+        <v>0.001318134264631919</v>
       </c>
       <c r="G93">
-        <v>0.007073287388887349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02590262305921793</v>
+      </c>
+      <c r="H93">
+        <v>0.005239962003322349</v>
+      </c>
+      <c r="I93">
+        <v>0.02607452651392585</v>
+      </c>
+      <c r="J93">
+        <v>0.006385871037421872</v>
+      </c>
+      <c r="K93">
+        <v>-2.237963507347061e-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09336246741349602</v>
+        <v>0.1218554692845008</v>
       </c>
       <c r="C94">
-        <v>-0.04189946777273112</v>
+        <v>-0.04799592867472952</v>
       </c>
       <c r="D94">
-        <v>0.004540151256570479</v>
+        <v>-0.02294686110147189</v>
       </c>
       <c r="E94">
-        <v>0.0002048377665214017</v>
+        <v>-0.005434567924327839</v>
       </c>
       <c r="F94">
-        <v>-0.1294686404991122</v>
+        <v>-0.02790326872526315</v>
       </c>
       <c r="G94">
-        <v>0.06386036686594482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.00628835930518751</v>
+      </c>
+      <c r="H94">
+        <v>-0.1021533315179074</v>
+      </c>
+      <c r="I94">
+        <v>-0.1293194478901591</v>
+      </c>
+      <c r="J94">
+        <v>-0.006504033767104923</v>
+      </c>
+      <c r="K94">
+        <v>-0.01559541733092236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1359134352459468</v>
+        <v>0.1198318519510091</v>
       </c>
       <c r="C95">
-        <v>-0.06869200337152466</v>
+        <v>-0.0699015509851512</v>
       </c>
       <c r="D95">
-        <v>-0.06862401337369915</v>
+        <v>-0.01586422903473663</v>
       </c>
       <c r="E95">
-        <v>-0.01979364206046407</v>
+        <v>-0.004072255250973958</v>
       </c>
       <c r="F95">
-        <v>0.06384969077906601</v>
+        <v>-0.0764670599296423</v>
       </c>
       <c r="G95">
-        <v>-0.1314831572294366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02152995891401441</v>
+      </c>
+      <c r="H95">
+        <v>0.1168533392445039</v>
+      </c>
+      <c r="I95">
+        <v>0.2186593167705426</v>
+      </c>
+      <c r="J95">
+        <v>0.05437397974913456</v>
+      </c>
+      <c r="K95">
+        <v>0.1208895812453369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.006889662889988731</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001852483979877552</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.003315380336629431</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.004836836411896642</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0005290713127746543</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.0111609535090967</v>
+      </c>
+      <c r="H96">
+        <v>0.02221514839127081</v>
+      </c>
+      <c r="I96">
+        <v>0.008173835278907192</v>
+      </c>
+      <c r="J96">
+        <v>-0.01144193314232196</v>
+      </c>
+      <c r="K96">
+        <v>-0.01949189242931358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2048592703040238</v>
+        <v>0.1867650271421706</v>
       </c>
       <c r="C97">
-        <v>0.1404214343632296</v>
+        <v>-0.02422498048223224</v>
       </c>
       <c r="D97">
-        <v>0.9025445222870958</v>
+        <v>-0.3590103808201217</v>
       </c>
       <c r="E97">
-        <v>-0.03583434988508714</v>
+        <v>0.4446476171659997</v>
       </c>
       <c r="F97">
-        <v>0.05297080173833363</v>
+        <v>0.7600682141650308</v>
       </c>
       <c r="G97">
-        <v>-0.02733489495725419</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.003894047150414593</v>
+      </c>
+      <c r="H97">
+        <v>-0.0690397463098331</v>
+      </c>
+      <c r="I97">
+        <v>0.05251998324643987</v>
+      </c>
+      <c r="J97">
+        <v>0.06067034826479772</v>
+      </c>
+      <c r="K97">
+        <v>0.01968093516093821</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3114980792665332</v>
+        <v>0.267508383711116</v>
       </c>
       <c r="C98">
-        <v>-0.08440902898865166</v>
+        <v>-0.09278881982499</v>
       </c>
       <c r="D98">
-        <v>-0.0535606621358188</v>
+        <v>0.03321076876179392</v>
       </c>
       <c r="E98">
-        <v>0.2512143657819468</v>
+        <v>-0.01277865293481415</v>
       </c>
       <c r="F98">
-        <v>0.2149266259525157</v>
+        <v>-0.04176990173793048</v>
       </c>
       <c r="G98">
-        <v>0.2806076967441555</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2927097474381644</v>
+      </c>
+      <c r="H98">
+        <v>-0.2191518744375244</v>
+      </c>
+      <c r="I98">
+        <v>0.1482761563048501</v>
+      </c>
+      <c r="J98">
+        <v>-0.1545519191124497</v>
+      </c>
+      <c r="K98">
+        <v>0.6238396450798374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08406037220626955</v>
+        <v>0.05733604304291959</v>
       </c>
       <c r="C99">
-        <v>-0.03224835154181186</v>
+        <v>-0.02212538471184512</v>
       </c>
       <c r="D99">
-        <v>-0.01072786577025451</v>
+        <v>-0.03430486985278616</v>
       </c>
       <c r="E99">
-        <v>0.01448369908812722</v>
+        <v>-0.003115733651436172</v>
       </c>
       <c r="F99">
-        <v>-0.01483913729220348</v>
+        <v>-0.03670517945364947</v>
       </c>
       <c r="G99">
-        <v>-0.0190571519424435</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.009318380657885395</v>
+      </c>
+      <c r="H99">
+        <v>0.0007154616581588958</v>
+      </c>
+      <c r="I99">
+        <v>-0.01478369994456978</v>
+      </c>
+      <c r="J99">
+        <v>0.03012861361512121</v>
+      </c>
+      <c r="K99">
+        <v>-0.04863567092031226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01707012603383549</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01712330635550939</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1028350461650315</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.03809969826099752</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.02199150505420872</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.0448150570219806</v>
+      </c>
+      <c r="H100">
+        <v>-0.01835535999519686</v>
+      </c>
+      <c r="I100">
+        <v>-0.04603887977931439</v>
+      </c>
+      <c r="J100">
+        <v>-0.0133519990449633</v>
+      </c>
+      <c r="K100">
+        <v>0.266971528591539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05675640368179988</v>
+        <v>0.04063453412337337</v>
       </c>
       <c r="C101">
-        <v>-0.007559188317177469</v>
+        <v>-0.02002429300208254</v>
       </c>
       <c r="D101">
-        <v>-0.0304942488704717</v>
+        <v>-0.01332062257119622</v>
       </c>
       <c r="E101">
-        <v>-0.04031018142404279</v>
+        <v>-0.02431033663213233</v>
       </c>
       <c r="F101">
-        <v>-0.03455679313382934</v>
+        <v>-0.02329069214117849</v>
       </c>
       <c r="G101">
-        <v>-0.05049391002713435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09410772710010391</v>
+      </c>
+      <c r="H101">
+        <v>0.02618447361930576</v>
+      </c>
+      <c r="I101">
+        <v>-0.001379849353198672</v>
+      </c>
+      <c r="J101">
+        <v>-0.03932985116715081</v>
+      </c>
+      <c r="K101">
+        <v>0.05067449375228054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
